--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>657004.2725104038</v>
+        <v>673161.304105489</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728807</v>
+        <v>9102620.618728817</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9140493.877339661</v>
+        <v>9140493.877339659</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>309.9963616278966</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>290.5286403308944</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>33.41419987006942</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>90.70802510303609</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755684</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.326290596288809</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>199.6289396988174</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,13 +1306,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>73.31370764131945</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>354.752216257426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>123.5492650282466</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1622,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>257.0152846411281</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>61.27848144397856</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,13 +1780,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.3236091729814</v>
       </c>
       <c r="I16" t="n">
-        <v>107.855579634056</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>206.502538005601</v>
       </c>
       <c r="D17" t="n">
-        <v>317.0837352438119</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,10 +1859,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.43931059510331</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>131.2830259545902</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>26.94389492651078</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.7498680634313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>397.8509874798052</v>
+        <v>398.031379884394</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.141678492559</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>349.3397092300172</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>141.4957998077627</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>146.8731963782481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147.9405042558448</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>290.5286403308938</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>37.35930701763399</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>52.26209087956671</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.4526210585752</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>236.0502377560821</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>32.64956439616962</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3630,7 +3630,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3718,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16.60557849018875</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>221.002178698296</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>173.3086298268758</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.7498680634315</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1920.409918978289</v>
+        <v>1718.448825665084</v>
       </c>
       <c r="C2" t="n">
-        <v>1920.409918978289</v>
+        <v>1349.486308724672</v>
       </c>
       <c r="D2" t="n">
-        <v>1562.144220371539</v>
+        <v>1349.486308724672</v>
       </c>
       <c r="E2" t="n">
-        <v>1176.355967773295</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>765.3700629836871</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>347.406254881874</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4343,37 +4343,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018223</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4428,13 +4428,13 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,7 +4495,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4504,34 +4504,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064346</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D5" t="n">
-        <v>891.446759560896</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E5" t="n">
-        <v>505.6585069626518</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F5" t="n">
-        <v>505.6585069626518</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G5" t="n">
-        <v>87.69469886083863</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2374.318646082041</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2120.556860720133</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2120.556860720133</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1767.788205450018</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1394.322447188938</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1004.183115213127</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>781.1711973675267</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C8" t="n">
-        <v>412.2086804271149</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.809403547223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2519.631915861393</v>
       </c>
       <c r="T8" t="n">
-        <v>2495.503697383053</v>
+        <v>2300.997248833456</v>
       </c>
       <c r="U8" t="n">
-        <v>2241.741912021145</v>
+        <v>2047.235463471548</v>
       </c>
       <c r="V8" t="n">
-        <v>1910.679024677574</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="W8" t="n">
-        <v>1557.91036940746</v>
+        <v>1716.172576127977</v>
       </c>
       <c r="X8" t="n">
-        <v>1557.91036940746</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.771037431648</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4945,22 +4945,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>264.3261428644631</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2465.942913862886</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
@@ -5042,10 +5042,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2465.942913862886</v>
+        <v>2572.351853615953</v>
       </c>
       <c r="X11" t="n">
-        <v>2465.942913862886</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y11" t="n">
-        <v>2465.942913862886</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5118,10 +5118,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
         <v>670.8219208598708</v>
@@ -5145,16 +5145,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5218,16 +5218,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U13" t="n">
         <v>53.94298182036445</v>
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2255.520561484594</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.558044544182</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D14" t="n">
-        <v>1528.292345937431</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E14" t="n">
-        <v>1142.504093339187</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F14" t="n">
-        <v>731.5181885495797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G14" t="n">
-        <v>313.5543804477666</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5276,13 +5276,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5309,19 +5309,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.120401548716</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.120401548716</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5394,10 +5394,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761945</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482876</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D16" t="n">
-        <v>377.5443364482876</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E16" t="n">
-        <v>377.5443364482876</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F16" t="n">
-        <v>377.5443364482876</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G16" t="n">
-        <v>208.54453618662</v>
+        <v>196.6941021971134</v>
       </c>
       <c r="H16" t="n">
-        <v>208.54453618662</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5458,28 +5458,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="17">
@@ -5492,22 +5492,22 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D17" t="n">
-        <v>857.6950425204218</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E17" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5516,10 +5516,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5574,43 +5574,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J18" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J18" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5698,25 +5698,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>678.1902866356228</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>678.1902866356228</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U19" t="n">
-        <v>389.0166762901907</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V19" t="n">
-        <v>389.0166762901907</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1166.959449965771</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C20" t="n">
-        <v>797.9969330253591</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1401.290064435878</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>1015.501811837634</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>604.5159070480263</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>186.5520989462132</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5783,19 +5783,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V20" t="n">
-        <v>2669.933035536898</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>2317.164380266784</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X20" t="n">
-        <v>1943.698622005704</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.559290029893</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5847,7 +5847,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2342.015910972395</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C22" t="n">
-        <v>2173.079728044489</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y22" t="n">
-        <v>2523.664375802635</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2307.009759042411</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C23" t="n">
-        <v>1938.047242101999</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="D23" t="n">
-        <v>1579.781543495249</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.993290897005</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="F23" t="n">
-        <v>783.0073861073972</v>
+        <v>783.1896006574868</v>
       </c>
       <c r="G23" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,10 +6078,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761946</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4805193761946</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3638799638588</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E25" t="n">
-        <v>248.4507863814657</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F25" t="n">
-        <v>101.5608388835554</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064343</v>
+        <v>2567.064746875</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064343</v>
+        <v>2312.380258669113</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064343</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2307.009759042411</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6266,10 +6266,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6312,16 +6312,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6412,22 +6412,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="C29" t="n">
-        <v>1595.875667274027</v>
+        <v>940.9219833362306</v>
       </c>
       <c r="D29" t="n">
-        <v>1595.875667274027</v>
+        <v>582.6562847294801</v>
       </c>
       <c r="E29" t="n">
-        <v>1210.087414675782</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861748</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>196.8680321312359</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,19 +6461,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2520.971603332393</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2520.971603332393</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2520.971603332393</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X29" t="n">
-        <v>2372.61483931396</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y29" t="n">
-        <v>1982.475507338148</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="30">
@@ -6552,13 +6552,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6655,16 +6655,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>184.0273259635867</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1610.120910258947</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
         <v>882.8926947117852</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6731,19 +6731,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1759.555763042629</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X32" t="n">
-        <v>1759.555763042629</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1759.555763042629</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="33">
@@ -6792,10 +6792,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6880,25 +6880,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2549.002432452407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>2334.714009270569</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>2107.405821939171</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y34" t="n">
         <v>2022.963088632153</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1759.555763042629</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1721.819089287443</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1363.553390680693</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E35" t="n">
-        <v>1363.553390680693</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6938,10 +6938,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1759.555763042629</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>1759.555763042629</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7026,31 +7026,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2471.7452186737</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2243.755667775683</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1865.381229508782</v>
+        <v>576.3714747656866</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
@@ -7175,10 +7175,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2664.169733042294</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2410.407947680385</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2079.345060336814</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>1726.5764050667</v>
       </c>
       <c r="X38" t="n">
-        <v>2642.120401548716</v>
+        <v>1353.11064680562</v>
       </c>
       <c r="Y38" t="n">
-        <v>2251.981069572904</v>
+        <v>962.9713148298083</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7272,10 +7272,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073964</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>473.4444960005474</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>184.0273259635867</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1970.914677487028</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.914677487028</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.648978880278</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.860726282034</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>815.874821492426</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>397.9110133906129</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>70.71629342661572</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7442,19 +7442,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X41" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.914677487028</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7512,19 +7512,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761945</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
         <v>53.94298182036445</v>
@@ -7609,10 +7609,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247702</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7676,22 +7676,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1310.833184497836</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.9958041606071</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C46" t="n">
-        <v>204.0596212327002</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7846,10 +7846,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>554.6442689908469</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783517</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,13 +9726,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,10 +10911,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11376,7 +11376,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>71.93400844436513</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>33.39413243346274</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22711,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22787,22 +22787,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>290.5085728942877</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,19 +22829,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>125.7402952546217</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>24.62049154535643</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890123</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23002,10 +23002,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23018,13 +23018,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,13 +23066,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>53.15211197852292</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>16.81938065884043</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23081,10 +23081,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23194,13 +23194,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>82.85718120047569</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.52067551358152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>225.6917036891664</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>66.90748812322909</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23549,19 +23549,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>266.4737770261564</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,13 +23668,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>14.84727966881374</v>
       </c>
       <c r="I16" t="n">
-        <v>27.11004215828224</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>158.7703537654065</v>
       </c>
       <c r="D17" t="n">
-        <v>37.59930637687108</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23911,7 +23911,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>162.7062283549156</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>192.6397468097669</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24023,19 +24023,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>300.8083635436241</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726081</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24184,16 +24184,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.83478528866354</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.93318254098978</v>
+        <v>15.75279013640102</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.1681237664919</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>15.93318254099034</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24619,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>91.64776835319847</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24652,22 +24652,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>182.4269729565944</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>222.857904300221</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>38.52630155726084</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24895,16 +24895,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>234.7933374076357</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>58.71232838651918</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25120,28 +25120,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>327.9135847533736</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>361.5220791412283</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25208,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25363,7 +25363,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>1.885271837007139</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25375,10 +25375,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25391,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>129.2226540149255</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>183.7987559614882</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25606,16 +25606,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>135.3257377546725</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,10 +25682,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>144.2707130727115</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>196.4224708515932</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26086,10 +26086,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519929</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519927</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>790486.6127519927</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>790486.6127519929</v>
+        <v>790486.6127519928</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>790486.6127519928</v>
+        <v>790486.6127519929</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="D2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="E2" t="n">
         <v>274694.9795149697</v>
@@ -26326,22 +26326,22 @@
         <v>274694.9795149697</v>
       </c>
       <c r="G2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="H2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="H2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="M2" t="n">
         <v>274694.9795149697</v>
@@ -26350,10 +26350,10 @@
         <v>274694.9795149697</v>
       </c>
       <c r="O2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087038</v>
       </c>
       <c r="C4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="F4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="G4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="H4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="I4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087038</v>
       </c>
       <c r="J4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="K4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="L4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="M4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="N4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="O4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="P4" t="n">
-        <v>55591.68022641086</v>
+        <v>53660.56571087037</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26488,7 +26488,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453723.6579893951</v>
+        <v>-451792.5434738547</v>
       </c>
       <c r="C6" t="n">
-        <v>136244.2212251494</v>
+        <v>138175.3357406899</v>
       </c>
       <c r="D6" t="n">
-        <v>136244.2212251496</v>
+        <v>138175.33574069</v>
       </c>
       <c r="E6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="F6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="G6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.93574069</v>
       </c>
       <c r="H6" t="n">
-        <v>169871.8212251496</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="I6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="J6" t="n">
-        <v>-6551.397967443409</v>
+        <v>-4620.283451903248</v>
       </c>
       <c r="K6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="L6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.93574069</v>
       </c>
       <c r="M6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="N6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406899</v>
       </c>
       <c r="O6" t="n">
-        <v>169871.8212251494</v>
+        <v>171802.9357406898</v>
       </c>
       <c r="P6" t="n">
-        <v>169871.8212251493</v>
+        <v>171802.9357406899</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,10 +26805,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,31 +27009,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,7 +31045,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31054,34 +31054,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,40 +31118,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31160,7 +31160,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,25 +31221,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34702,22 +34702,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34869,10 +34869,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307151</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L11" t="n">
         <v>421.5361394435301</v>
@@ -35428,7 +35428,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35884,7 +35884,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L17" t="n">
         <v>421.5361394435301</v>
@@ -35896,7 +35896,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36215,10 +36215,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36680,7 +36680,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37394,7 +37394,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37561,7 +37561,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,10 +37631,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37871,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
